--- a/E2E_output.xlsx
+++ b/E2E_output.xlsx
@@ -1,43 +1,132 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1. Work\test\E2E_Visible\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D23AF1C-0DF7-4029-8FB3-FCCF51895A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>Buyer</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>Grey Book. Qty</t>
+  </si>
+  <si>
+    <t>Grey Recv. Qty</t>
+  </si>
+  <si>
+    <t>Grey Bal. Qty</t>
+  </si>
+  <si>
+    <t>Finish Book. Qty</t>
+  </si>
+  <si>
+    <t>Finish Recv. Qty</t>
+  </si>
+  <si>
+    <t>Finish Bal. Qty</t>
+  </si>
+  <si>
+    <t>Order Sheet Receive Date</t>
+  </si>
+  <si>
+    <t>Cut Plan Start Date</t>
+  </si>
+  <si>
+    <t>Cut Plan End Date</t>
+  </si>
+  <si>
+    <t>Grey Bal Qty</t>
+  </si>
+  <si>
+    <t>Order Qty</t>
+  </si>
+  <si>
+    <t>Cutting Qty</t>
+  </si>
+  <si>
+    <t>Input Qty</t>
+  </si>
+  <si>
+    <t>Output Qty</t>
+  </si>
+  <si>
+    <t>Poly Qty</t>
+  </si>
+  <si>
+    <t>Shipped Qty</t>
+  </si>
+  <si>
+    <t>Sewing Floor</t>
+  </si>
+  <si>
+    <t>G-STAR</t>
+  </si>
+  <si>
+    <t>2025/15558</t>
+  </si>
+  <si>
+    <t>D29114-GD-26Q1</t>
+  </si>
+  <si>
+    <t>01-Sep-2025</t>
+  </si>
+  <si>
+    <t>13-Oct-2025</t>
+  </si>
+  <si>
+    <t>18-Oct-2025</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -46,113 +135,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="000c8748"/>
+        <color rgb="FF0C8748"/>
       </left>
       <right style="thin">
-        <color rgb="000c8748"/>
+        <color rgb="FF0C8748"/>
       </right>
       <top style="thin">
-        <color rgb="000c8748"/>
+        <color rgb="FF0C8748"/>
       </top>
       <bottom style="thin">
-        <color rgb="000c8748"/>
+        <color rgb="FF0C8748"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -440,190 +462,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Buyer</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Order</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Style</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Grey Book. Qty</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Grey Recv. Qty</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Grey Bal. Qty</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>Finish Book. Qty</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Finish Recv. Qty</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>Finish Bal. Qty</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>Order Sheet Receive Date</t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <t>Cut Plan Start Date</t>
-        </is>
-      </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>Cut Plan End Date</t>
-        </is>
-      </c>
-      <c r="M1" s="2" t="inlineStr">
-        <is>
-          <t>Grey Bal Qty</t>
-        </is>
-      </c>
-      <c r="N1" s="2" t="inlineStr">
-        <is>
-          <t>Order Qty</t>
-        </is>
-      </c>
-      <c r="O1" s="2" t="inlineStr">
-        <is>
-          <t>Cutting Qty</t>
-        </is>
-      </c>
-      <c r="P1" s="2" t="inlineStr">
-        <is>
-          <t>Input Qty</t>
-        </is>
-      </c>
-      <c r="Q1" s="2" t="inlineStr">
-        <is>
-          <t>Output Qty</t>
-        </is>
-      </c>
-      <c r="R1" s="2" t="inlineStr">
-        <is>
-          <t>Poly Qty</t>
-        </is>
-      </c>
-      <c r="S1" s="2" t="inlineStr">
-        <is>
-          <t>Shipped Qty</t>
-        </is>
-      </c>
-      <c r="T1" s="2" t="inlineStr">
-        <is>
-          <t>Sewing Floor</t>
-        </is>
+    <row r="1" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>G-STAR</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>2025/15558</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>D29114-GD-26Q1</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="n">
+    <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2">
         <v>1967</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="2">
         <v>1965.01</v>
       </c>
-      <c r="F2" s="3" t="inlineStr"/>
-      <c r="G2" s="3" t="n">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
         <v>1684</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="2">
         <v>1741</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="2">
         <v>0</v>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>01-Sep-2025</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>13-Oct-2025</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>18-Oct-2025</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="n">
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
         <v>2</v>
       </c>
-      <c r="N2" s="3" t="n">
+      <c r="N2" s="2">
         <v>2768</v>
       </c>
-      <c r="O2" s="3" t="n">
+      <c r="O2" s="2">
         <v>3175</v>
       </c>
-      <c r="P2" s="3" t="n">
+      <c r="P2" s="2">
         <v>2963</v>
       </c>
-      <c r="Q2" s="3" t="n">
+      <c r="Q2" s="2">
         <v>2945</v>
       </c>
-      <c r="R2" s="3" t="n">
+      <c r="R2" s="2">
         <v>3220</v>
       </c>
-      <c r="S2" s="3" t="n">
+      <c r="S2" s="2">
         <v>2635</v>
       </c>
-      <c r="T2" s="3" t="inlineStr"/>
+      <c r="T2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/E2E_output.xlsx
+++ b/E2E_output.xlsx
@@ -1,132 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1. Work\test\E2E_Visible\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D23AF1C-0DF7-4029-8FB3-FCCF51895A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>Buyer</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>Style</t>
-  </si>
-  <si>
-    <t>Grey Book. Qty</t>
-  </si>
-  <si>
-    <t>Grey Recv. Qty</t>
-  </si>
-  <si>
-    <t>Grey Bal. Qty</t>
-  </si>
-  <si>
-    <t>Finish Book. Qty</t>
-  </si>
-  <si>
-    <t>Finish Recv. Qty</t>
-  </si>
-  <si>
-    <t>Finish Bal. Qty</t>
-  </si>
-  <si>
-    <t>Order Sheet Receive Date</t>
-  </si>
-  <si>
-    <t>Cut Plan Start Date</t>
-  </si>
-  <si>
-    <t>Cut Plan End Date</t>
-  </si>
-  <si>
-    <t>Grey Bal Qty</t>
-  </si>
-  <si>
-    <t>Order Qty</t>
-  </si>
-  <si>
-    <t>Cutting Qty</t>
-  </si>
-  <si>
-    <t>Input Qty</t>
-  </si>
-  <si>
-    <t>Output Qty</t>
-  </si>
-  <si>
-    <t>Poly Qty</t>
-  </si>
-  <si>
-    <t>Shipped Qty</t>
-  </si>
-  <si>
-    <t>Sewing Floor</t>
-  </si>
-  <si>
-    <t>G-STAR</t>
-  </si>
-  <si>
-    <t>2025/15558</t>
-  </si>
-  <si>
-    <t>D29114-GD-26Q1</t>
-  </si>
-  <si>
-    <t>01-Sep-2025</t>
-  </si>
-  <si>
-    <t>13-Oct-2025</t>
-  </si>
-  <si>
-    <t>18-Oct-2025</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -135,46 +46,113 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF0C8748"/>
+        <color rgb="000c8748"/>
       </left>
       <right style="thin">
-        <color rgb="FF0C8748"/>
+        <color rgb="000c8748"/>
       </right>
       <top style="thin">
-        <color rgb="FF0C8748"/>
+        <color rgb="000c8748"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF0C8748"/>
+        <color rgb="000c8748"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -462,132 +440,598 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Buyer</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Order</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Style</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Grey Book. Qty</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Grey Recv. Qty</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Grey Bal. Qty</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Finish Book. Qty</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Finish Recv. Qty</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Finish Bal. Qty</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Order Sheet Receive Date</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>Cut Plan Start Date</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Cut Plan End Date</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>Grey Bal Qty</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>Order Qty</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>Cutting Qty</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>Input Qty</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>Output Qty</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>Poly Qty</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>Shipped Qty</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>G-STAR</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>2025/20020</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>D28609-NOOS-R01</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>2773</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="inlineStr"/>
+      <c r="G2" s="3" t="n">
+        <v>2773</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>2773</v>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>29-Oct-2025</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>01-Jan-1970</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>29-Oct-2025</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>2773</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>7463</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>8357</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>7675</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>7647</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>7641</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>7601</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>G-STAR</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>2025/20348</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>D30752-26Q1</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>1384</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>1382.75</v>
+      </c>
+      <c r="F3" s="3" t="inlineStr"/>
+      <c r="G3" s="3" t="n">
+        <v>1106</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>1187</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>01-Dec-2025</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>04-Dec-2025</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>3066</v>
+      </c>
+      <c r="O3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>G-STAR</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>2025/19980</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>D24512-YD-NOOS-R01</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>758</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>671.05</v>
+      </c>
+      <c r="F4" s="3" t="inlineStr"/>
+      <c r="G4" s="3" t="n">
+        <v>606</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>633</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>29-Oct-2025</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>01-Jan-1970</t>
+        </is>
+      </c>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>29-Oct-2025</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="n">
+        <v>87</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>1404</v>
+      </c>
+      <c r="O4" s="3" t="n">
+        <v>1508</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>1478</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>1458</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>1458</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>G-STAR</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>2025/20559</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>D29524-SOLID-26Q1-R01</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>824</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>823.6</v>
+      </c>
+      <c r="F5" s="3" t="inlineStr"/>
+      <c r="G5" s="3" t="n">
+        <v>632</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>686</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>06-Nov-2025</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>29-Nov-2025</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>01-Dec-2025</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="N5" s="3" t="n">
+        <v>2555</v>
+      </c>
+      <c r="O5" s="3" t="n">
+        <v>2856</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>2674</v>
+      </c>
+      <c r="Q5" s="3" t="n">
+        <v>2668</v>
+      </c>
+      <c r="R5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>G-STAR</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>2025/20017</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>D24512-NOOS-R02</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>1392</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="inlineStr"/>
+      <c r="G6" s="3" t="n">
+        <v>1392</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>1392</v>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>29-Oct-2025</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>01-Jan-1970</t>
+        </is>
+      </c>
+      <c r="L6" s="3" t="inlineStr">
+        <is>
+          <t>29-Oct-2025</t>
+        </is>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>1392</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>4214</v>
+      </c>
+      <c r="O6" s="3" t="n">
+        <v>4494</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>4458</v>
+      </c>
+      <c r="Q6" s="3" t="n">
+        <v>4422</v>
+      </c>
+      <c r="R6" s="3" t="n">
+        <v>4386</v>
+      </c>
+      <c r="S6" s="3" t="n">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>G-STAR</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>2025/21851</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>D07205-STM-26Q1</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>1204</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="inlineStr"/>
+      <c r="G7" s="3" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>275</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>825</v>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>24-Nov-2025</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>10-Dec-2025</t>
+        </is>
+      </c>
+      <c r="L7" s="3" t="inlineStr">
+        <is>
+          <t>10-Dec-2025</t>
+        </is>
+      </c>
+      <c r="M7" s="3" t="n">
+        <v>877</v>
+      </c>
+      <c r="N7" s="3" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O7" s="3" t="n">
+        <v>2040</v>
+      </c>
+      <c r="P7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>G-STAR</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>2025/20366</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>D29602-26Q1</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>1419</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>1414.82</v>
+      </c>
+      <c r="F8" s="3" t="inlineStr"/>
+      <c r="G8" s="3" t="n">
+        <v>1148</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>1214</v>
+      </c>
+      <c r="I8" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1967</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1965.01</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>1684</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1741</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="2">
-        <v>2</v>
-      </c>
-      <c r="N2" s="2">
-        <v>2768</v>
-      </c>
-      <c r="O2" s="2">
-        <v>3175</v>
-      </c>
-      <c r="P2" s="2">
-        <v>2963</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>2945</v>
-      </c>
-      <c r="R2" s="2">
-        <v>3220</v>
-      </c>
-      <c r="S2" s="2">
-        <v>2635</v>
-      </c>
-      <c r="T2" s="2"/>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="K8" s="3" t="inlineStr">
+        <is>
+          <t>29-Nov-2025</t>
+        </is>
+      </c>
+      <c r="L8" s="3" t="inlineStr">
+        <is>
+          <t>02-Dec-2025</t>
+        </is>
+      </c>
+      <c r="M8" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <v>5284</v>
+      </c>
+      <c r="O8" s="3" t="n">
+        <v>4662</v>
+      </c>
+      <c r="P8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
